--- a/ctgov_mapping_v1.xlsx
+++ b/ctgov_mapping_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanfung/Library/Mobile Documents/com~apple~CloudDocs/UCL MSc DSML/MSc Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEB1CDA5-5BDB-6947-BA46-3F189A0022CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9AC0AE-BCF1-374C-ADDE-6FD68952B198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14800" yWindow="760" windowWidth="19620" windowHeight="21580" xr2:uid="{A6ED2628-BB2B-C742-ACBD-73174A164BBD}"/>
+    <workbookView xWindow="560" yWindow="760" windowWidth="19620" windowHeight="21580" xr2:uid="{A6ED2628-BB2B-C742-ACBD-73174A164BBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="113">
   <si>
     <t>variable_wishlist</t>
   </si>
@@ -515,9 +515,6 @@
     </r>
   </si>
   <si>
-    <t>If list contains "CHILD" → peds;  if list contains "ADULT? → adult</t>
-  </si>
-  <si>
     <t>PHASE1, PHASE2, PHASE3, PHASE4</t>
   </si>
   <si>
@@ -652,6 +649,9 @@
   </si>
   <si>
     <t>resultsSection.adverseEventsModule.seriousEvents | resultsSection.adverseEventsModule.otherEvents</t>
+  </si>
+  <si>
+    <t>If list contains "CHILD" → peds;  if list contains "ADULT" → adult</t>
   </si>
 </sst>
 </file>
@@ -1117,8 +1117,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED433BD-12EC-B84D-8A71-386670E0261B}">
   <dimension ref="A1:F72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1130,7 +1130,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -1204,7 +1204,7 @@
         <v>66</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
@@ -1292,7 +1292,7 @@
         <v>66</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
@@ -1308,7 +1308,7 @@
         <v>50</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
@@ -1332,13 +1332,13 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1352,7 +1352,7 @@
         <v>68</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1403,7 +1403,7 @@
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1426,7 +1426,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>66</v>
@@ -1440,13 +1440,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D24" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -1512,7 +1512,7 @@
         <v>68</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
@@ -1522,13 +1522,13 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -1629,7 +1629,7 @@
         <v>35</v>
       </c>
       <c r="B39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>66</v>
@@ -1694,7 +1694,7 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>40</v>
       </c>
@@ -1704,7 +1704,9 @@
       <c r="C45" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D45" s="1"/>
+      <c r="D45" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
@@ -1719,7 +1721,7 @@
         <v>68</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -1905,55 +1907,55 @@
         <v>50</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
+        <v>99</v>
+      </c>
+      <c r="B61" t="s">
         <v>100</v>
-      </c>
-      <c r="B61" t="s">
-        <v>101</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B62" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
+        <v>105</v>
+      </c>
+      <c r="B63" t="s">
         <v>106</v>
-      </c>
-      <c r="B63" t="s">
-        <v>107</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>

--- a/ctgov_mapping_v1.xlsx
+++ b/ctgov_mapping_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanfung/Library/Mobile Documents/com~apple~CloudDocs/UCL MSc DSML/MSc Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED9AC0AE-BCF1-374C-ADDE-6FD68952B198}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9B82A8-CBB0-3D45-AE8C-5FF612A00D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="760" windowWidth="19620" windowHeight="21580" xr2:uid="{A6ED2628-BB2B-C742-ACBD-73174A164BBD}"/>
+    <workbookView xWindow="13620" yWindow="760" windowWidth="19620" windowHeight="21580" xr2:uid="{A6ED2628-BB2B-C742-ACBD-73174A164BBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="112">
   <si>
     <t>variable_wishlist</t>
   </si>
@@ -558,9 +558,6 @@
   </si>
   <si>
     <t>resultsSection.participantFlowModule.participantFlowMilestones</t>
-  </si>
-  <si>
-    <t>Source: ClinicalTrials.gov (only)</t>
   </si>
   <si>
     <t>len(locations)</t>
@@ -760,6 +757,20 @@
     <dxf>
       <fill>
         <patternFill>
+          <bgColor rgb="FFFFC000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B0F0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
           <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
@@ -768,20 +779,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B0F0"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1115,10 +1112,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED433BD-12EC-B84D-8A71-386670E0261B}">
-  <dimension ref="A1:F72"/>
+  <dimension ref="A1:F71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1129,117 +1126,124 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>97</v>
-      </c>
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>3</v>
-      </c>
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D3" s="1"/>
+      <c r="A3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>75</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>76</v>
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>77</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D5" s="1" t="s">
-        <v>74</v>
+      <c r="D5" t="s">
+        <v>107</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
-    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>77</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="B6" s="1"/>
       <c r="C6" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" t="s">
-        <v>108</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
+        <v>78</v>
+      </c>
       <c r="C7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D7" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="D7" t="s">
+        <v>79</v>
+      </c>
       <c r="E7" s="1"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>78</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="B8" s="1"/>
       <c r="C8" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" t="s">
-        <v>79</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1" t="s">
@@ -1250,132 +1254,132 @@
       <c r="F9" s="1"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="1"/>
+      <c r="A11" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="C11" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1"/>
-      <c r="C12" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>64</v>
+        <v>14</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
     </row>
-    <row r="14" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>49</v>
+        <v>15</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>67</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>89</v>
-      </c>
+      <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>67</v>
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
+        <v>90</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>91</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16" t="s">
-        <v>90</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="B16" s="1"/>
       <c r="C16" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D16" t="s">
-        <v>91</v>
+      <c r="D16" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="1"/>
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
       <c r="C17" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>92</v>
+        <v>50</v>
+      </c>
+      <c r="D17" t="s">
+        <v>88</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
     </row>
-    <row r="18" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18" t="s">
-        <v>87</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="B18" s="1"/>
       <c r="C18" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D18" t="s">
-        <v>88</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="D18" s="1"/>
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
@@ -1387,7 +1391,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
@@ -1399,7 +1403,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
@@ -1411,103 +1415,107 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B22" s="1"/>
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>93</v>
+      </c>
       <c r="C22" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="D23" t="s">
+        <v>94</v>
+      </c>
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="1:6" ht="17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" t="s">
-        <v>94</v>
+        <v>66</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>81</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>83</v>
-      </c>
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
+      <c r="A27" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
+      <c r="C27" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="5" t="s">
-        <v>25</v>
+      <c r="A28" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="B28" s="1"/>
-      <c r="C28" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>108</v>
+      </c>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="1"/>
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>96</v>
+      </c>
       <c r="C29" s="1" t="s">
         <v>68</v>
       </c>
@@ -1519,34 +1527,30 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" t="s">
-        <v>96</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
         <v>69</v>
       </c>
+      <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
@@ -1557,32 +1561,32 @@
       <c r="F32" s="1"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="1"/>
+      <c r="A34" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
+      <c r="C34" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>31</v>
+      <c r="A35" s="1" t="s">
+        <v>32</v>
       </c>
       <c r="B35" s="1"/>
-      <c r="C35" s="3" t="s">
-        <v>48</v>
+      <c r="C35" s="1" t="s">
+        <v>69</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1590,7 +1594,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B36" s="1"/>
       <c r="C36" s="1" t="s">
@@ -1602,7 +1606,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B37" s="1"/>
       <c r="C37" s="1" t="s">
@@ -1614,11 +1618,13 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B38" s="1"/>
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>110</v>
+      </c>
       <c r="C38" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
@@ -1626,13 +1632,11 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B39" t="s">
-        <v>111</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B39" s="1"/>
       <c r="C39" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -1640,7 +1644,7 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1" t="s">
@@ -1652,7 +1656,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B41" s="1"/>
       <c r="C41" s="1" t="s">
@@ -1663,40 +1667,44 @@
       <c r="F41" s="1"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
-        <v>38</v>
-      </c>
+      <c r="A42" s="1"/>
       <c r="B42" s="1"/>
-      <c r="C42" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="1"/>
+      <c r="A43" s="2" t="s">
+        <v>39</v>
+      </c>
       <c r="B43" s="1"/>
-      <c r="C43" s="1"/>
+      <c r="C43" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" s="1"/>
-      <c r="C44" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D44" s="1"/>
+    <row r="44" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B44" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>97</v>
+      </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
     </row>
     <row r="45" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B45" t="s">
         <v>71</v>
@@ -1705,30 +1713,26 @@
         <v>68</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
     </row>
-    <row r="46" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B46" t="s">
-        <v>71</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B46" s="1"/>
       <c r="C46" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>92</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1" t="s">
@@ -1740,7 +1744,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1" t="s">
@@ -1752,7 +1756,7 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1" t="s">
@@ -1764,7 +1768,7 @@
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B50" s="1"/>
       <c r="C50" s="1" t="s">
@@ -1776,7 +1780,7 @@
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B51" s="1"/>
       <c r="C51" s="1" t="s">
@@ -1787,121 +1791,125 @@
       <c r="F51" s="1"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
-        <v>47</v>
-      </c>
+      <c r="A52" s="1"/>
       <c r="B52" s="1"/>
-      <c r="C52" s="1" t="s">
-        <v>69</v>
-      </c>
+      <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="1"/>
+      <c r="A53" s="2" t="s">
+        <v>70</v>
+      </c>
       <c r="B53" s="1"/>
-      <c r="C53" s="1"/>
+      <c r="C53" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B54" s="1"/>
-      <c r="C54" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D54" s="1"/>
+      <c r="A54" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>60</v>
+      </c>
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D58" s="1" t="s">
-        <v>62</v>
-      </c>
+      <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>65</v>
+        <v>86</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D59" s="1"/>
+      <c r="D59" s="1" t="s">
+        <v>101</v>
+      </c>
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>86</v>
+      <c r="A60" t="s">
+        <v>98</v>
+      </c>
+      <c r="B60" t="s">
+        <v>99</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>50</v>
@@ -1914,7 +1922,7 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B61" t="s">
         <v>100</v>
@@ -1923,7 +1931,7 @@
         <v>50</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -1933,30 +1941,22 @@
         <v>104</v>
       </c>
       <c r="B62" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>105</v>
-      </c>
-      <c r="B63" t="s">
-        <v>106</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D63" s="1" t="s">
-        <v>107</v>
-      </c>
+      <c r="A63" s="1"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
     </row>
@@ -2024,27 +2024,19 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A72" s="1"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1"/>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="1"/>
-    </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="containsText" dxfId="2" priority="4" operator="containsText" text="exact">
-      <formula>NOT(ISERROR(SEARCH("exact",C1)))</formula>
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="missing">
+      <formula>NOT(ISERROR(SEARCH("missing",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="3" operator="containsText" text="proxy">
+    <cfRule type="containsText" dxfId="2" priority="2" stopIfTrue="1" operator="containsText" text="derived">
+      <formula>NOT(ISERROR(SEARCH("derived",C1)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="proxy">
       <formula>NOT(ISERROR(SEARCH("proxy",C1)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="2" stopIfTrue="1" operator="containsText" text="derived">
-      <formula>NOT(ISERROR(SEARCH("derived",C1)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="missing">
-      <formula>NOT(ISERROR(SEARCH("missing",C1)))</formula>
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="exact">
+      <formula>NOT(ISERROR(SEARCH("exact",C1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ctgov_mapping_v1.xlsx
+++ b/ctgov_mapping_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanfung/Library/Mobile Documents/com~apple~CloudDocs/UCL MSc DSML/MSc Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC9B82A8-CBB0-3D45-AE8C-5FF612A00D07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B601C0-DF5A-5D4E-8ACD-72B8927274F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="13620" yWindow="760" windowWidth="19620" windowHeight="21580" xr2:uid="{A6ED2628-BB2B-C742-ACBD-73174A164BBD}"/>
   </bookViews>
@@ -445,9 +445,6 @@
     <t xml:space="preserve">True if any intervention's "name" contains "placebo" (case-insentivie) </t>
   </si>
   <si>
-    <t>protocolSection.oversightModule.hasDmc</t>
-  </si>
-  <si>
     <t xml:space="preserve">Boolean; True if Data Monitoring Committee (DMC) is declared </t>
   </si>
   <si>
@@ -649,6 +646,9 @@
   </si>
   <si>
     <t>If list contains "CHILD" → peds;  if list contains "ADULT" → adult</t>
+  </si>
+  <si>
+    <t>protocolSection.oversightModule.oversightHasDmc</t>
   </si>
 </sst>
 </file>
@@ -735,18 +735,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -772,13 +771,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1112,10 +1104,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED433BD-12EC-B84D-8A71-386670E0261B}">
-  <dimension ref="A1:F71"/>
+  <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1125,904 +1117,617 @@
     <col min="4" max="4" width="113.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>53</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>76</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>74</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+    </row>
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>66</v>
       </c>
       <c r="D5" t="s">
-        <v>107</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="C6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
         <v>78</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>66</v>
       </c>
       <c r="D7" t="s">
         <v>79</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A11" s="2" t="s">
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" t="s">
         <v>64</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="D12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" t="s">
         <v>50</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" t="s">
         <v>89</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+      <c r="C17" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" t="s">
-        <v>90</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="D17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>94</v>
+      </c>
+      <c r="C23" t="s">
         <v>68</v>
       </c>
-      <c r="D15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-    </row>
-    <row r="17" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D17" t="s">
-        <v>88</v>
-      </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="D23" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-    </row>
-    <row r="23" spans="1:6" ht="17" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>95</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" t="s">
-        <v>94</v>
-      </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" t="s">
         <v>81</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>111</v>
+      </c>
+      <c r="C25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
         <v>82</v>
       </c>
-      <c r="C25" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="1"/>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>26</v>
       </c>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1" t="s">
+      <c r="C28" t="s">
         <v>68</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
         <v>108</v>
       </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" t="s">
-        <v>96</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="D29" s="1" t="s">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>29</v>
+      </c>
+      <c r="C31" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
         <v>109</v>
       </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B34" s="1"/>
-      <c r="C34" s="3" t="s">
+      <c r="C38" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B38" t="s">
-        <v>110</v>
-      </c>
-      <c r="C38" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-      <c r="F38" s="1"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-      <c r="F39" s="1"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-      <c r="F40" s="1"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-      <c r="F41" s="1"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A42" s="1"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-      <c r="F42" s="1"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" s="1"/>
-      <c r="C43" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-      <c r="F43" s="1"/>
-    </row>
-    <row r="44" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+    </row>
+    <row r="44" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>40</v>
       </c>
       <c r="B44" t="s">
         <v>71</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" t="s">
         <v>68</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="1"/>
-    </row>
-    <row r="45" spans="1:6" ht="18" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="D44" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
         <v>41</v>
       </c>
       <c r="B45" t="s">
         <v>71</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" t="s">
         <v>68</v>
       </c>
-      <c r="D45" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="1"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+      <c r="D45" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
         <v>42</v>
       </c>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-      <c r="F46" s="1"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+      <c r="C46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>43</v>
       </c>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-      <c r="F47" s="1"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+      <c r="C47" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>44</v>
       </c>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-      <c r="F48" s="1"/>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+      <c r="C48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>45</v>
       </c>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+      <c r="C49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>46</v>
       </c>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-      <c r="F50" s="1"/>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+      <c r="C50" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>47</v>
       </c>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-      <c r="F51" s="1"/>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A52" s="1"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1"/>
-      <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-      <c r="F52" s="1"/>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
+      <c r="C51" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B53" s="1"/>
-      <c r="C53" s="3" t="s">
+      <c r="C53" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-      <c r="F53" s="1"/>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
         <v>51</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" t="s">
         <v>52</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" t="s">
         <v>50</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" t="s">
         <v>60</v>
       </c>
-      <c r="E54" s="1"/>
-      <c r="F54" s="1"/>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
         <v>54</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" t="s">
         <v>56</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" t="s">
         <v>50</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" t="s">
         <v>59</v>
       </c>
-      <c r="E55" s="1"/>
-      <c r="F55" s="1"/>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
         <v>55</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" t="s">
         <v>57</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" t="s">
         <v>50</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" t="s">
         <v>58</v>
       </c>
-      <c r="E56" s="1"/>
-      <c r="F56" s="1"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
         <v>61</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" t="s">
         <v>63</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" t="s">
         <v>62</v>
       </c>
-      <c r="E57" s="1"/>
-      <c r="F57" s="1"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>83</v>
+      </c>
+      <c r="B58" t="s">
+        <v>65</v>
+      </c>
+      <c r="C58" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
         <v>84</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C58" s="1" t="s">
+      <c r="B59" t="s">
+        <v>85</v>
+      </c>
+      <c r="C59" t="s">
         <v>50</v>
       </c>
-      <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C59" s="1" t="s">
+      <c r="D59" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>97</v>
+      </c>
+      <c r="B60" t="s">
+        <v>98</v>
+      </c>
+      <c r="C60" t="s">
         <v>50</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D60" t="s">
         <v>101</v>
       </c>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1"/>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>98</v>
-      </c>
-      <c r="B60" t="s">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>102</v>
+      </c>
+      <c r="B61" t="s">
         <v>99</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C61" t="s">
         <v>50</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="E60" s="1"/>
-      <c r="F60" s="1"/>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="D61" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>103</v>
       </c>
-      <c r="B61" t="s">
-        <v>100</v>
-      </c>
-      <c r="C61" s="1" t="s">
+      <c r="B62" t="s">
+        <v>104</v>
+      </c>
+      <c r="C62" t="s">
         <v>50</v>
       </c>
-      <c r="D61" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>104</v>
-      </c>
-      <c r="B62" t="s">
+      <c r="D62" t="s">
         <v>105</v>
       </c>
-      <c r="C62" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="E62" s="1"/>
-      <c r="F62" s="1"/>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A63" s="1"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1"/>
-      <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-      <c r="F63" s="1"/>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A64" s="1"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1"/>
-      <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1"/>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A65" s="1"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1"/>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-      <c r="F65" s="1"/>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A66" s="1"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1"/>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-      <c r="F66" s="1"/>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A67" s="1"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1"/>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1"/>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A68" s="1"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="1"/>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A69" s="1"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="1"/>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A70" s="1"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="1"/>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A71" s="1"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1"/>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="1"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">

--- a/ctgov_mapping_v1.xlsx
+++ b/ctgov_mapping_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanfung/Library/Mobile Documents/com~apple~CloudDocs/UCL MSc DSML/MSc Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B601C0-DF5A-5D4E-8ACD-72B8927274F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF45027-C9D1-984D-B824-56EB52FC41BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13620" yWindow="760" windowWidth="19620" windowHeight="21580" xr2:uid="{A6ED2628-BB2B-C742-ACBD-73174A164BBD}"/>
+    <workbookView xWindow="15760" yWindow="760" windowWidth="18080" windowHeight="21580" xr2:uid="{A6ED2628-BB2B-C742-ACBD-73174A164BBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="110">
   <si>
     <t>variable_wishlist</t>
   </si>
@@ -216,9 +216,6 @@
   </si>
   <si>
     <t>NONE / SINGLE / DOUBLE / TRIPLE / QUADRUPLE</t>
-  </si>
-  <si>
-    <t>ISO date (YYYY-MM or YYYY-MM-DD)</t>
   </si>
   <si>
     <t>study type</t>
@@ -527,9 +524,36 @@
     <t>protocolSection.eligibilityModule.eligibilityCriteria</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Parse both ISO strings, then </t>
-    </r>
+    <t>len(locations)</t>
+  </si>
+  <si>
+    <t>Allocation (Randomised / Non-randomised)</t>
+  </si>
+  <si>
+    <t>protocolSection.designModule.designInfo.allocation</t>
+  </si>
+  <si>
+    <t>protocolSection.oversightModule.isFdaRegulatedDrug</t>
+  </si>
+  <si>
+    <t>N/A means no upper limit</t>
+  </si>
+  <si>
+    <t>RANDOMIZED, NON_RANDOMIZED, N_A</t>
+  </si>
+  <si>
+    <t>FDA-regulated drug</t>
+  </si>
+  <si>
+    <t>FDA-regulated device</t>
+  </si>
+  <si>
+    <t>protocolSection.oversightModule.isFdaRegulatedDevice</t>
+  </si>
+  <si>
+    <t>Yes/No</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="10"/>
@@ -537,7 +561,7 @@
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
-      <t>duration = primaryCompletion − start</t>
+      <t>"DRUG"</t>
     </r>
     <r>
       <rPr>
@@ -547,46 +571,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> in days. Both fields are present in every record</t>
-    </r>
-  </si>
-  <si>
-    <t>protocolSection.statusModule.startDateStruct.date | protocolSection.statusModule.primaryCompletionDateStruct.date</t>
-  </si>
-  <si>
-    <t>resultsSection.participantFlowModule.participantFlowMilestones</t>
-  </si>
-  <si>
-    <t>len(locations)</t>
-  </si>
-  <si>
-    <t>Allocation (Randomised / Non-randomised)</t>
-  </si>
-  <si>
-    <t>protocolSection.designModule.designInfo.allocation</t>
-  </si>
-  <si>
-    <t>protocolSection.oversightModule.isFdaRegulatedDrug</t>
-  </si>
-  <si>
-    <t>N/A means no upper limit</t>
-  </si>
-  <si>
-    <t>RANDOMIZED, NON_RANDOMIZED, N_A</t>
-  </si>
-  <si>
-    <t>FDA-regulated drug</t>
-  </si>
-  <si>
-    <t>FDA-regulated device</t>
-  </si>
-  <si>
-    <t>protocolSection.oversightModule.isFdaRegulatedDevice</t>
-  </si>
-  <si>
-    <t>Yes/No</t>
-  </si>
-  <si>
+      <t xml:space="preserve">, </t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -594,7 +580,7 @@
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
-      <t>"DRUG"</t>
+      <t>"BIOLOGICAL"</t>
     </r>
     <r>
       <rPr>
@@ -613,42 +599,29 @@
         <rFont val="Arial Unicode MS"/>
         <family val="2"/>
       </rPr>
-      <t>"BIOLOGICAL"</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Arial Unicode MS"/>
-        <family val="2"/>
-      </rPr>
       <t>"DEVICE"</t>
     </r>
   </si>
   <si>
-    <t>Requires results-posted-trials: Compute (screened-started)/ screened using "assessed for eligibility" vs "started"</t>
-  </si>
-  <si>
-    <t>Requires results-posted-trials: Compute (started-completed)/ started from milestone counts</t>
-  </si>
-  <si>
-    <t>resultsSection.adverseEventsModule.seriousEvents | resultsSection.adverseEventsModule.otherEvents</t>
-  </si>
-  <si>
     <t>If list contains "CHILD" → peds;  if list contains "ADULT" → adult</t>
   </si>
   <si>
     <t>protocolSection.oversightModule.oversightHasDmc</t>
+  </si>
+  <si>
+    <t>ISO date (YYYY-MM or YYYY-MM-DD); parse later</t>
+  </si>
+  <si>
+    <t>completion date</t>
+  </si>
+  <si>
+    <t>protocolSection.statusModule.primaryCompletionDateStruct.date</t>
+  </si>
+  <si>
+    <t>Use this and above feature to compute Treament duration</t>
+  </si>
+  <si>
+    <t>see new addition;  this is computed using study start date and completion date</t>
   </si>
 </sst>
 </file>
@@ -1104,10 +1077,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED433BD-12EC-B84D-8A71-386670E0261B}">
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1150,7 +1123,7 @@
         <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1158,13 +1131,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.25">
@@ -1172,13 +1145,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1186,7 +1159,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.25">
@@ -1194,13 +1167,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
         <v>78</v>
-      </c>
-      <c r="C7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1208,7 +1181,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1216,7 +1189,7 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1232,13 +1205,13 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -1252,7 +1225,7 @@
         <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1260,7 +1233,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C14" t="s">
         <v>50</v>
@@ -1271,13 +1244,13 @@
         <v>16</v>
       </c>
       <c r="B15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" t="s">
         <v>89</v>
-      </c>
-      <c r="C15" t="s">
-        <v>68</v>
-      </c>
-      <c r="D15" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -1285,10 +1258,10 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D16" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.25">
@@ -1296,13 +1269,13 @@
         <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C17" t="s">
         <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1310,7 +1283,7 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1318,23 +1291,23 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1342,24 +1315,21 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
-        <v>94</v>
-      </c>
       <c r="C23" t="s">
         <v>68</v>
       </c>
       <c r="D23" t="s">
-        <v>93</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1367,13 +1337,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" t="s">
+        <v>65</v>
+      </c>
+      <c r="D24" t="s">
         <v>80</v>
-      </c>
-      <c r="C24" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1381,13 +1351,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C25" t="s">
         <v>50</v>
       </c>
       <c r="D25" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
@@ -1405,22 +1375,13 @@
       <c r="C28" t="s">
         <v>68</v>
       </c>
-      <c r="D28" t="s">
-        <v>107</v>
-      </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="B29" t="s">
-        <v>95</v>
-      </c>
       <c r="C29" t="s">
         <v>68</v>
-      </c>
-      <c r="D29" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1428,7 +1389,7 @@
         <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1436,7 +1397,7 @@
         <v>29</v>
       </c>
       <c r="C31" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1444,7 +1405,7 @@
         <v>30</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
@@ -1460,7 +1421,7 @@
         <v>32</v>
       </c>
       <c r="C35" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
@@ -1468,7 +1429,7 @@
         <v>33</v>
       </c>
       <c r="C36" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
@@ -1476,18 +1437,15 @@
         <v>34</v>
       </c>
       <c r="C37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>35</v>
       </c>
-      <c r="B38" t="s">
-        <v>109</v>
-      </c>
       <c r="C38" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -1495,7 +1453,7 @@
         <v>36</v>
       </c>
       <c r="C39" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
@@ -1503,7 +1461,7 @@
         <v>37</v>
       </c>
       <c r="C40" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -1511,7 +1469,7 @@
         <v>38</v>
       </c>
       <c r="C41" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -1527,13 +1485,13 @@
         <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C44" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="18" x14ac:dyDescent="0.25">
@@ -1541,13 +1499,13 @@
         <v>41</v>
       </c>
       <c r="B45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C45" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -1555,7 +1513,7 @@
         <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -1563,7 +1521,7 @@
         <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
@@ -1571,7 +1529,7 @@
         <v>44</v>
       </c>
       <c r="C48" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -1579,7 +1537,7 @@
         <v>45</v>
       </c>
       <c r="C49" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -1587,7 +1545,7 @@
         <v>46</v>
       </c>
       <c r="C50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -1595,12 +1553,12 @@
         <v>47</v>
       </c>
       <c r="C51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>48</v>
@@ -1617,120 +1575,134 @@
         <v>50</v>
       </c>
       <c r="D54" t="s">
-        <v>60</v>
+        <v>105</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>107</v>
       </c>
       <c r="C55" t="s">
         <v>50</v>
       </c>
       <c r="D55" t="s">
-        <v>59</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C56" t="s">
         <v>50</v>
       </c>
       <c r="D56" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C57" t="s">
         <v>50</v>
       </c>
       <c r="D57" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
       <c r="B58" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C58" t="s">
         <v>50</v>
       </c>
+      <c r="D58" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B59" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="C59" t="s">
         <v>50</v>
       </c>
-      <c r="D59" t="s">
-        <v>100</v>
-      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="B60" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="C60" t="s">
         <v>50</v>
       </c>
       <c r="D60" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="B61" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C61" t="s">
         <v>50</v>
       </c>
       <c r="D61" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B62" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C62" t="s">
         <v>50</v>
       </c>
       <c r="D62" t="s">
-        <v>105</v>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>99</v>
+      </c>
+      <c r="B63" t="s">
+        <v>100</v>
+      </c>
+      <c r="C63" t="s">
+        <v>50</v>
+      </c>
+      <c r="D63" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C1048576">
+  <conditionalFormatting sqref="C1:C1048576 D55">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="missing">
       <formula>NOT(ISERROR(SEARCH("missing",C1)))</formula>
     </cfRule>

--- a/ctgov_mapping_v1.xlsx
+++ b/ctgov_mapping_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanfung/Library/Mobile Documents/com~apple~CloudDocs/UCL MSc DSML/MSc Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CF45027-C9D1-984D-B824-56EB52FC41BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999557F1-829A-704F-BB16-85571928B7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15760" yWindow="760" windowWidth="18080" windowHeight="21580" xr2:uid="{A6ED2628-BB2B-C742-ACBD-73174A164BBD}"/>
+    <workbookView xWindow="16140" yWindow="760" windowWidth="18080" windowHeight="21580" xr2:uid="{A6ED2628-BB2B-C742-ACBD-73174A164BBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="115">
   <si>
     <t>variable_wishlist</t>
   </si>
@@ -189,9 +189,6 @@
   </si>
   <si>
     <t>exact</t>
-  </si>
-  <si>
-    <t>start date</t>
   </si>
   <si>
     <t>protocolSection.statusModule.startDateStruct.date</t>
@@ -512,12 +509,6 @@
     <t>PHASE1, PHASE2, PHASE3, PHASE4</t>
   </si>
   <si>
-    <t>protocolSection.outcomesModule.primaryOutcomes | protocolSection.outcomesModule.secondaryOutcomes | protocolSection.outcomesModule.otherOutcomes</t>
-  </si>
-  <si>
-    <t>len(primary)+len(secondary)+len(other)</t>
-  </si>
-  <si>
     <t>same as above</t>
   </si>
   <si>
@@ -612,9 +603,6 @@
     <t>ISO date (YYYY-MM or YYYY-MM-DD); parse later</t>
   </si>
   <si>
-    <t>completion date</t>
-  </si>
-  <si>
     <t>protocolSection.statusModule.primaryCompletionDateStruct.date</t>
   </si>
   <si>
@@ -622,6 +610,33 @@
   </si>
   <si>
     <t>see new addition;  this is computed using study start date and completion date</t>
+  </si>
+  <si>
+    <t>Study Start Date</t>
+  </si>
+  <si>
+    <t>Primary Completion Date</t>
+  </si>
+  <si>
+    <t>primary_outcomes</t>
+  </si>
+  <si>
+    <t>protocolSection.outcomesModule.primaryOutcomes</t>
+  </si>
+  <si>
+    <t>secondary_outcomes</t>
+  </si>
+  <si>
+    <t>other_outcomes</t>
+  </si>
+  <si>
+    <t>protocolSection.outcomesModule.secondaryOutcomes</t>
+  </si>
+  <si>
+    <t>protocolSection.outcomesModule.otherOutcomes</t>
+  </si>
+  <si>
+    <t>len(primary)+len(secondary)+len(other); see below</t>
   </si>
 </sst>
 </file>
@@ -1077,10 +1092,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED433BD-12EC-B84D-8A71-386670E0261B}">
-  <dimension ref="A1:D63"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1117,13 +1132,13 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C3" t="s">
         <v>50</v>
       </c>
       <c r="D3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -1131,13 +1146,13 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.25">
@@ -1145,13 +1160,13 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1159,7 +1174,7 @@
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.25">
@@ -1167,13 +1182,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
+        <v>76</v>
+      </c>
+      <c r="C7" t="s">
+        <v>64</v>
+      </c>
+      <c r="D7" t="s">
         <v>77</v>
-      </c>
-      <c r="C7" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1181,7 +1196,7 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1189,7 +1204,7 @@
         <v>11</v>
       </c>
       <c r="C9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -1205,27 +1220,27 @@
         <v>13</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" t="s">
         <v>49</v>
       </c>
       <c r="C13" t="s">
         <v>50</v>
       </c>
       <c r="D13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
@@ -1233,7 +1248,7 @@
         <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C14" t="s">
         <v>50</v>
@@ -1243,466 +1258,496 @@
       <c r="A15" t="s">
         <v>16</v>
       </c>
-      <c r="B15" t="s">
-        <v>88</v>
-      </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D15" t="s">
-        <v>89</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>108</v>
+      </c>
+      <c r="B16" t="s">
+        <v>109</v>
       </c>
       <c r="C16" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>110</v>
       </c>
       <c r="B17" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
       <c r="C17" t="s">
         <v>50</v>
       </c>
-      <c r="D17" t="s">
-        <v>86</v>
-      </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>111</v>
+      </c>
+      <c r="B18" t="s">
+        <v>113</v>
       </c>
       <c r="C18" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C19" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+        <v>66</v>
+      </c>
+      <c r="D19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>68</v>
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>72</v>
+        <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>91</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>70</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" t="s">
-        <v>109</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" t="s">
-        <v>80</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>88</v>
       </c>
       <c r="C25" t="s">
-        <v>50</v>
-      </c>
-      <c r="D25" t="s">
-        <v>81</v>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" t="s">
+        <v>67</v>
+      </c>
+      <c r="D26" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>48</v>
+      <c r="A27" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" t="s">
+        <v>78</v>
+      </c>
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>101</v>
       </c>
       <c r="C28" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" t="s">
-        <v>68</v>
+        <v>50</v>
+      </c>
+      <c r="D28" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C30" t="s">
-        <v>68</v>
+      <c r="A30" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>48</v>
+      <c r="A34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>34</v>
-      </c>
-      <c r="C37" t="s">
-        <v>68</v>
+      <c r="A37" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C38" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C39" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>38</v>
       </c>
-      <c r="C41" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="C44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="C46" s="2" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="44" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+    <row r="47" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
         <v>40</v>
       </c>
-      <c r="B44" t="s">
-        <v>70</v>
-      </c>
-      <c r="C44" t="s">
-        <v>67</v>
-      </c>
-      <c r="D44" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="18" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
+      <c r="B47" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" t="s">
+        <v>66</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" ht="18" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
         <v>41</v>
       </c>
-      <c r="B45" t="s">
-        <v>70</v>
-      </c>
-      <c r="C45" t="s">
-        <v>67</v>
-      </c>
-      <c r="D45" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>42</v>
-      </c>
-      <c r="C46" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>43</v>
-      </c>
-      <c r="C47" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>44</v>
+      <c r="B48" t="s">
+        <v>69</v>
       </c>
       <c r="C48" t="s">
-        <v>68</v>
+        <v>66</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C50" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C51" t="s">
-        <v>68</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>45</v>
+      </c>
+      <c r="C52" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>48</v>
+      <c r="A53" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>51</v>
-      </c>
-      <c r="B54" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C54" t="s">
-        <v>50</v>
-      </c>
-      <c r="D54" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>106</v>
-      </c>
-      <c r="B55" t="s">
-        <v>107</v>
-      </c>
-      <c r="C55" t="s">
-        <v>50</v>
-      </c>
-      <c r="D55" t="s">
-        <v>108</v>
+        <v>67</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>54</v>
-      </c>
-      <c r="B56" t="s">
-        <v>56</v>
-      </c>
-      <c r="C56" t="s">
-        <v>50</v>
-      </c>
-      <c r="D56" t="s">
-        <v>59</v>
+      <c r="A56" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>55</v>
+        <v>106</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C57" t="s">
         <v>50</v>
       </c>
       <c r="D57" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>107</v>
       </c>
       <c r="B58" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="C58" t="s">
         <v>50</v>
       </c>
       <c r="D58" t="s">
-        <v>61</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="B59" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C59" t="s">
         <v>50</v>
       </c>
+      <c r="D59" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>83</v>
+        <v>54</v>
       </c>
       <c r="B60" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="C60" t="s">
         <v>50</v>
       </c>
       <c r="D60" t="s">
-        <v>96</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="C61" t="s">
         <v>50</v>
       </c>
       <c r="D61" t="s">
-        <v>97</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="B62" t="s">
-        <v>95</v>
+        <v>63</v>
       </c>
       <c r="C62" t="s">
         <v>50</v>
       </c>
-      <c r="D62" t="s">
-        <v>101</v>
-      </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="B63" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="C63" t="s">
         <v>50</v>
       </c>
       <c r="D63" t="s">
-        <v>101</v>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>90</v>
+      </c>
+      <c r="B64" t="s">
+        <v>91</v>
+      </c>
+      <c r="C64" t="s">
+        <v>50</v>
+      </c>
+      <c r="D64" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>95</v>
+      </c>
+      <c r="B65" t="s">
+        <v>92</v>
+      </c>
+      <c r="C65" t="s">
+        <v>50</v>
+      </c>
+      <c r="D65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>96</v>
+      </c>
+      <c r="B66" t="s">
+        <v>97</v>
+      </c>
+      <c r="C66" t="s">
+        <v>50</v>
+      </c>
+      <c r="D66" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="C1:C1048576 D55">
+  <conditionalFormatting sqref="D58 C1:C1048576">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="missing">
       <formula>NOT(ISERROR(SEARCH("missing",C1)))</formula>
     </cfRule>

--- a/ctgov_mapping_v1.xlsx
+++ b/ctgov_mapping_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jonathanfung/Library/Mobile Documents/com~apple~CloudDocs/UCL MSc DSML/MSc Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999557F1-829A-704F-BB16-85571928B7B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2DD66D5-961D-0B48-8C8B-FA8CBB524810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16140" yWindow="760" windowWidth="18080" windowHeight="21580" xr2:uid="{A6ED2628-BB2B-C742-ACBD-73174A164BBD}"/>
+    <workbookView xWindow="16300" yWindow="760" windowWidth="17920" windowHeight="21580" xr2:uid="{A6ED2628-BB2B-C742-ACBD-73174A164BBD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="121">
   <si>
     <t>variable_wishlist</t>
   </si>
@@ -637,6 +637,24 @@
   </si>
   <si>
     <t>len(primary)+len(secondary)+len(other); see below</t>
+  </si>
+  <si>
+    <t>Primary Completion Type</t>
+  </si>
+  <si>
+    <t>Overall status</t>
+  </si>
+  <si>
+    <t>protocolSection.statusModule.overallStatus</t>
+  </si>
+  <si>
+    <t>Actual vs anticipated flag - use to drop projections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recruitment status, e.g. Completed/ Terminated, etc. </t>
+  </si>
+  <si>
+    <t>protocolSection.statusModule.primaryCompletionDateStruct.type</t>
   </si>
 </sst>
 </file>
@@ -1092,10 +1110,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EED433BD-12EC-B84D-8A71-386670E0261B}">
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="87" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B57" activeCellId="1" sqref="B67 B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1746,8 +1764,36 @@
         <v>98</v>
       </c>
     </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>115</v>
+      </c>
+      <c r="B67" t="s">
+        <v>120</v>
+      </c>
+      <c r="C67" t="s">
+        <v>50</v>
+      </c>
+      <c r="D67" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>116</v>
+      </c>
+      <c r="B68" t="s">
+        <v>117</v>
+      </c>
+      <c r="C68" t="s">
+        <v>50</v>
+      </c>
+      <c r="D68" t="s">
+        <v>119</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="D58 C1:C1048576">
+  <conditionalFormatting sqref="D58 C1:C1048576 D67:D68">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="missing">
       <formula>NOT(ISERROR(SEARCH("missing",C1)))</formula>
     </cfRule>
